--- a/xlsx/白宫办公厅主任_intext.xlsx
+++ b/xlsx/白宫办公厅主任_intext.xlsx
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_白宫办公厅主任</t>
+    <t>美国</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_白宫办公厅主任</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7F%C2%B7%E5%87%AF%E5%88%A9</t>
@@ -41,7 +41,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%B8%BD%E7%B5%B1</t>
   </si>
   <si>
-    <t>美國總統</t>
+    <t>美国总统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%BB%E6%9C%9F%E5%88%B6</t>
@@ -53,7 +53,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%B8%BD%E7%B5%B1%E8%BE%A6%E4%BA%8B%E6%A9%9F%E6%A7%8B</t>
   </si>
   <si>
-    <t>美國總統辦事機構</t>
+    <t>美国总统办事机构</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E5%AE%AB%E5%8A%9E%E5%85%AC%E5%8E%85</t>
@@ -77,31 +77,31 @@
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E5%AE%AE</t>
   </si>
   <si>
-    <t>白宮</t>
+    <t>白宫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%8B%99%E5%8D%BF</t>
   </si>
   <si>
-    <t>美國國務卿</t>
+    <t>美国国务卿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%AF%E9%82%A6%E8%A1%8C%E6%94%BF%E9%83%A8%E9%96%80</t>
   </si>
   <si>
-    <t>美國聯邦行政部門</t>
+    <t>美国联邦行政部门</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E5%AE%AE%E6%96%B0%E8%81%9E%E7%A7%98%E6%9B%B8</t>
   </si>
   <si>
-    <t>白宮新聞秘書</t>
+    <t>白宫新闻秘书</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E7%94%98%E8%BF%BA%E8%BF%AA</t>
   </si>
   <si>
-    <t>約翰·甘迺迪</t>
+    <t>约翰·甘迺迪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E5%88%A9%C2%B7%E6%9D%9C%E9%B2%81%E9%97%A8</t>
@@ -125,13 +125,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E7%B4%8D%E5%BE%B7%C2%B7%E9%87%8C%E6%A0%B9</t>
   </si>
   <si>
-    <t>羅納德·里根</t>
+    <t>罗纳德·里根</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%82%91%E6%8B%89%E7%88%BE%E5%BE%B7%C2%B7%E7%A6%8F%E7%89%B9</t>
   </si>
   <si>
-    <t>傑拉爾德·福特</t>
+    <t>杰拉尔德·福特</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BF%AA%E5%85%8B%C2%B7%E5%88%87%E5%B0%BC</t>
@@ -149,31 +149,31 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E9%98%B2%E9%83%A8%E9%95%B7</t>
   </si>
   <si>
-    <t>美國國防部長</t>
+    <t>美国国防部长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%89%AF%E7%B8%BD%E7%B5%B1</t>
   </si>
   <si>
-    <t>美國副總統</t>
+    <t>美国副总统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B</t>
   </si>
   <si>
-    <t>法國</t>
+    <t>法国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF</t>
   </si>
   <si>
-    <t>俄羅斯</t>
+    <t>俄罗斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E6%96%AF%C2%B7%E8%B2%9D%E5%85%8B</t>
   </si>
   <si>
-    <t>詹姆斯·貝克</t>
+    <t>詹姆斯·贝克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9C%8D%E5%8D%8E%E5%BE%B7%C2%B7%E8%B4%9D%E5%85%8B</t>
@@ -185,7 +185,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9A%87%E5%B8%9D%E7%B8%BD%E7%B5%B1</t>
   </si>
   <si>
-    <t>皇帝總統</t>
+    <t>皇帝总统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%94%E6%B2%BB%C2%B7W%C2%B7%E5%B8%83%E4%BB%80</t>
@@ -197,7 +197,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E7%88%BE%C2%B7%E7%BE%85%E5%A4%AB</t>
   </si>
   <si>
-    <t>卡爾·羅夫</t>
+    <t>卡尔·罗夫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E6%80%80%E7%89%B9%C2%B7%E8%89%BE%E6%A3%AE%E8%B1%AA%E5%A8%81%E5%B0%94</t>
@@ -209,7 +209,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9E%97%E7%99%BB%C2%B7%E7%B4%84%E7%BF%B0%E9%81%9C</t>
   </si>
   <si>
-    <t>林登·約翰遜</t>
+    <t>林登·约翰逊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%94%90%E7%BA%B3%E5%BE%B7%C2%B7%E6%8B%89%E5%A7%86%E6%96%AF%E8%8F%B2%E5%B0%94%E5%BE%B7</t>
@@ -239,7 +239,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E6%9B%B8%E4%BA%9E%C2%B7%E5%8D%9A%E7%88%BE%E9%A0%93</t>
   </si>
   <si>
-    <t>約書亞·博爾頓</t>
+    <t>约书亚·博尔顿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E5%A7%86%C2%B7%E4%BC%8A%E6%9B%BC%E7%BA%BD%E5%B0%94</t>
@@ -251,7 +251,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%89%E5%85%8B%C2%B7%E6%AD%90%E5%B7%B4%E9%A6%AC</t>
   </si>
   <si>
-    <t>巴拉克·歐巴馬</t>
+    <t>巴拉克·欧巴马</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%C2%B7M%C2%B7%E6%88%B4%E5%88%A9</t>
@@ -281,7 +281,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%94%90%E7%B4%8D%C2%B7%E5%B7%9D%E6%99%AE</t>
   </si>
   <si>
-    <t>唐納·川普</t>
+    <t>唐纳·川普</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E5%AE%AE%E5%B9%95%E5%83%9A%E9%95%B7</t>
